--- a/src/main/resources/jxls_templates/newprodparam.xlsx
+++ b/src/main/resources/jxls_templates/newprodparam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="生产表单设置参数" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>生产项目名称</t>
+    <t>生产表单设置参数</t>
   </si>
   <si>
-    <t>参数名称</t>
+    <t>*生产项目名称</t>
+  </si>
+  <si>
+    <t>*参数名称</t>
   </si>
 </sst>
 </file>
@@ -32,9 +35,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -524,51 +535,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,102 +586,111 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,27 +1041,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="18.7583333333333" customWidth="1"/>
+    <col min="1" max="1" width="20.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7592592592593" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="24.95" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="20.4" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="24.95" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
